--- a/data/trans_bre/P25A_2_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_2_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -619,15 +635,25 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -647,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,15</t>
+          <t>0,0; 13,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 0,0</t>
+          <t>-9,88; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,16</t>
+          <t>0,0; 7,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,86</t>
+          <t>0,0; 10,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,8; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -746,6 +792,16 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -769,7 +825,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -779,15 +835,25 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -807,7 +873,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,0; 5,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -826,6 +892,16 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,61%</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-24,86%</t>
+          <t>-11,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>-14,09%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>126,21%</t>
         </is>
       </c>
     </row>
@@ -882,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 1,7</t>
+          <t>-4,83; 3,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 1,14</t>
+          <t>-4,93; 2,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,84</t>
+          <t>1,0; 9,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 8,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -908,6 +994,16 @@
       <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-94,4; —</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-52,07%</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-43,82%</t>
+          <t>-55,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>-54,37%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27,98%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-39,15%</t>
         </is>
       </c>
     </row>
@@ -962,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 1,95</t>
+          <t>-8,76; 3,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 2,13</t>
+          <t>-7,83; 3,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 4,07</t>
+          <t>-3,03; 6,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 231,06</t>
+          <t>-11,79; 6,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -986,6 +1092,16 @@
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-8,15</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-65,49%</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,3%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>121,87%</t>
+          <t>168,43%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15,06%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-37,99%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 1,1</t>
+          <t>-21,33; -2,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 5,15</t>
+          <t>-3,04; 12,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 18,32</t>
+          <t>-5,24; 9,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,01; 6,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,34; 194,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,91; 1135,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-56,71%</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>-74,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>233,89%</t>
+          <t>91,76%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>233,0%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-15,82%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,43; -0,04</t>
+          <t>-4,01; -0,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,01</t>
+          <t>-0,52; 3,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,07</t>
+          <t>-0,07; 2,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-87,66; 12,94</t>
+          <t>-3,05; 2,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 250,09</t>
+          <t>-100,0; 2,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1041,08</t>
+          <t>-40,87; 608,29</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-69,93; 185,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25A_2_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_2_R2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,155 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,09</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.899235473123541</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,66</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="n">
+        <v>16.44238666813218</v>
+      </c>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,73</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,97</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,88; 0,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,31</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,8; 0,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.501881571786452</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.615229151010212</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.808307250521115</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.006867043019789</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.168749314611567</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-12.1379065048801</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,34</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.022527380381158</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.14190930543763</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +783,155 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-11,49%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-14,09%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>126,21%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.304132403669634</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr"/>
+      <c r="J10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,83; 3,07</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; 2,17</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 9,65</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,52; 8,72</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-94,4; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="n">
+        <v>6.52492652955501</v>
+      </c>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,38</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,08</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-55,92%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-54,37%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>27,98%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-39,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,76; 3,79</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,83; 3,54</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,03; 6,15</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-11,79; 6,2</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.2276587775086148</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2029615414454424</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.94461410185227</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.746940779366076</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1091903349725428</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1732770599472314</v>
+      </c>
+      <c r="I13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.220625484088957</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-8,15</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,96</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-2,91</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>168,43%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>15,06%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-37,99%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.517552551191541</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.605398087488573</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.9917476339336533</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.510823462926048</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="n">
+        <v>-0.926219357057699</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-21,33; -2,46</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,04; 12,98</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-5,24; 9,16</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-15,01; 6,99</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.786832255096858</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.969287776550495</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.074115856305559</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.217462867634476</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +939,263 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,92</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-74,95%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>91,76%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>233,0%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-15,82%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.012975714442488</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.906219928217024</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.3543428924910634</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-2.231413549515759</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.5143850366848546</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.5368310279954753</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.2729544944222069</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.3795536498448368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; -0,4</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 3,01</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 2,9</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 2,3</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 2,04</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-40,87; 608,29</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-69,93; 185,92</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-7.910166170844156</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.325859095122254</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-2.690165014778623</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-10.3906473868014</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.194643013303496</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.322602864778976</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.349929461072279</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>5.737571743614348</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-6.954214052059288</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>3.479981274932118</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.01977539996634928</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-1.822539471814214</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1.473160132294371</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.007554115053226499</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.2419831894248866</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-18.1524293044972</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-3.810820971726121</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-7.954118912344393</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-12.60928849875732</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>-2.066454063597057</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>11.54524896805832</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>5.507601305198961</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>11.58929951763608</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.622935513008304</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.270085166734382</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.138612174070978</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.2143478440824041</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.7243897659257241</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>1.129995768790386</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>2.362996785461173</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.08049243915978684</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.477329268670568</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.3368002921555142</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.05442712257153975</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-2.642465868512528</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.3269025240904768</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.6872576291220966</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-0.1802714808080822</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.382217822671073</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.679268858458256</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>2.749374124025656</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.1210373761098626</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>6.733257744984467</v>
+      </c>
+      <c r="I24" s="6" t="inlineStr"/>
+      <c r="J24" s="6" t="n">
+        <v>2.350387123798547</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1203,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
